--- a/ml-dl-ds/assignment_v2/data-set/data_science_sample_data_v2.xlsx
+++ b/ml-dl-ds/assignment_v2/data-set/data_science_sample_data_v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01-Aug-2019\Building_Team_Oct19\Sample_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01-Jan-2020\InternBuddy\assignment\ml-dl-ds\assignment_v2\data-set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA20AF37-26A7-46A0-A512-B8918BBB00F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CDF7A2-9B69-4281-AA26-5A7A55591618}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7632,7 +7632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N612"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
@@ -7642,11 +7642,11 @@
     <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="255.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="76.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="58.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.125" customWidth="1"/>
+    <col min="9" max="9" width="32" customWidth="1"/>
     <col min="10" max="10" width="24.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.75" bestFit="1" customWidth="1"/>
